--- a/Sep19/all_countries/Tables/income-M_%cit.xlsx
+++ b/Sep19/all_countries/Tables/income-M_%cit.xlsx
@@ -489,16 +489,16 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.2150956608568527</v>
+        <v>0.2149984677061318</v>
       </c>
       <c r="C2">
-        <v>1007534436142</v>
+        <v>1010352780318</v>
       </c>
       <c r="D2">
-        <v>44453016000000</v>
+        <v>44983624000000</v>
       </c>
       <c r="E2">
-        <v>1072622167.25</v>
+        <v>1096199438.25</v>
       </c>
       <c r="F2">
         <v>14115446032323.57</v>
@@ -507,28 +507,28 @@
         <v>1156444632258.877</v>
       </c>
       <c r="H2">
-        <v>3.340072514701866</v>
+        <v>3.338972796719752</v>
       </c>
       <c r="I2">
-        <v>2.314187339880451</v>
+        <v>2.324106164195525</v>
       </c>
       <c r="J2">
-        <v>3.722387099404274</v>
+        <v>3.717560952637174</v>
       </c>
       <c r="K2">
-        <v>3.033189225961232</v>
+        <v>3.035765424121269</v>
       </c>
       <c r="L2">
-        <v>0.4487774910440297</v>
+        <v>0.4486297311751356</v>
       </c>
       <c r="M2">
-        <v>0.3109379163554199</v>
+        <v>0.3122706254719532</v>
       </c>
       <c r="N2">
-        <v>2.243887455220134</v>
+        <v>2.243148655875664</v>
       </c>
       <c r="O2">
-        <v>1.554689581777093</v>
+        <v>1.56135312735976</v>
       </c>
     </row>
     <row r="3" spans="1:15">
